--- a/result/student_marks.xlsx
+++ b/result/student_marks.xlsx
@@ -1,54 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="630" windowWidth="20775" windowHeight="7365"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
-  <si>
-    <t>1AM18CS076</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>1AM18CS067</t>
-  </si>
-  <si>
-    <t>1AM18CS157</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -63,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -379,290 +420,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>USN</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Internals</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Externals</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Internals.1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Externals.1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Total.1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Remarks.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>35</v>
-      </c>
-      <c r="D1">
-        <v>38</v>
-      </c>
-      <c r="E1">
-        <v>73</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1AM18CS002</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E2" t="n">
+        <v>52</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>24</v>
+      </c>
+      <c r="H2" t="n">
+        <v>28</v>
+      </c>
+      <c r="I2" t="n">
+        <v>52</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G1">
-        <v>26</v>
-      </c>
-      <c r="H1">
-        <v>29</v>
-      </c>
-      <c r="I1">
-        <v>55</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1">
-        <v>28</v>
-      </c>
-      <c r="L1">
-        <v>22</v>
-      </c>
-      <c r="M1">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1">
-        <v>20</v>
-      </c>
-      <c r="P1">
-        <v>27</v>
-      </c>
-      <c r="Q1">
-        <v>47</v>
-      </c>
-      <c r="R1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1">
-        <v>26</v>
-      </c>
-      <c r="T1">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1AM18CS006</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
         <v>37</v>
       </c>
-      <c r="U1">
-        <v>63</v>
-      </c>
-      <c r="V1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W1">
-        <v>33</v>
-      </c>
-      <c r="X1">
-        <v>56</v>
-      </c>
-      <c r="Y1">
-        <v>89</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA1">
-        <v>98</v>
-      </c>
-      <c r="AB1">
-        <v>0</v>
-      </c>
-      <c r="AC1">
-        <v>98</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>40</v>
-      </c>
-      <c r="D2">
-        <v>38</v>
-      </c>
-      <c r="E2">
-        <v>78</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>34</v>
-      </c>
-      <c r="H2">
-        <v>29</v>
-      </c>
-      <c r="I2">
-        <v>63</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>35</v>
-      </c>
-      <c r="L2">
+      <c r="E3" t="n">
+        <v>62</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>18</v>
+      </c>
+      <c r="H3" t="n">
+        <v>23</v>
+      </c>
+      <c r="I3" t="n">
         <v>41</v>
       </c>
-      <c r="M2">
-        <v>76</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>30</v>
-      </c>
-      <c r="P2">
-        <v>25</v>
-      </c>
-      <c r="Q2">
-        <v>55</v>
-      </c>
-      <c r="R2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>33</v>
-      </c>
-      <c r="T2">
-        <v>40</v>
-      </c>
-      <c r="U2">
-        <v>73</v>
-      </c>
-      <c r="V2" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>40</v>
-      </c>
-      <c r="X2">
-        <v>60</v>
-      </c>
-      <c r="Y2">
-        <v>100</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA2">
-        <v>98</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>98</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>40</v>
-      </c>
-      <c r="D3">
-        <v>42</v>
-      </c>
-      <c r="E3">
-        <v>82</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>26</v>
-      </c>
-      <c r="H3">
-        <v>25</v>
-      </c>
-      <c r="I3">
-        <v>51</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>30</v>
-      </c>
-      <c r="L3">
-        <v>31</v>
-      </c>
-      <c r="M3">
-        <v>61</v>
-      </c>
-      <c r="N3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>27</v>
-      </c>
-      <c r="P3">
-        <v>26</v>
-      </c>
-      <c r="Q3">
-        <v>53</v>
-      </c>
-      <c r="R3" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>33</v>
-      </c>
-      <c r="T3">
-        <v>41</v>
-      </c>
-      <c r="U3">
-        <v>74</v>
-      </c>
-      <c r="V3" t="s">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>40</v>
-      </c>
-      <c r="X3">
-        <v>60</v>
-      </c>
-      <c r="Y3">
-        <v>100</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA3">
-        <v>99</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>99</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>1</v>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/result/student_marks.xlsx
+++ b/result/student_marks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="B1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,123 +436,47 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>USN</t>
+          <t>1AM18CS002</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Internals</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Externals</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Remarks</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Internals.1</t>
+          <t>24</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Externals.1</t>
+          <t>28</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Total.1</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Remarks.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1AM18CS002</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30</v>
-      </c>
-      <c r="E2" t="n">
-        <v>52</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>24</v>
-      </c>
-      <c r="H2" t="n">
-        <v>28</v>
-      </c>
-      <c r="I2" t="n">
-        <v>52</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1AM18CS006</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>37</v>
-      </c>
-      <c r="E3" t="n">
-        <v>62</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>18</v>
-      </c>
-      <c r="H3" t="n">
-        <v>23</v>
-      </c>
-      <c r="I3" t="n">
-        <v>41</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>P</t>
+          <t>P.1</t>
         </is>
       </c>
     </row>

--- a/result/student_marks.xlsx
+++ b/result/student_marks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:J1"/>
+  <dimension ref="A1:AL4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,47 +436,595 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>USN</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Internals</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Externals</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Internals.1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Externals.1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Total.1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Remarks.1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Internals.2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Externals.2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Total.2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Remarks.2</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Internals.3</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Externals.3</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Total.3</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Remarks.3</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Internals.4</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Externals.4</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Total.4</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Remarks.4</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Internals.5</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Externals.5</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Total.5</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Remarks.5</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Internals.6</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Externals.6</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Total.6</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Remarks.6</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Internals.7</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Externals.7</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Total.7</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Remarks.7</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Internals.8</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Externals.8</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Total.8</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Remarks.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>1AM18CS002</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>52.1</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>P.1</t>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E2" t="n">
+        <v>52</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>24</v>
+      </c>
+      <c r="H2" t="n">
+        <v>28</v>
+      </c>
+      <c r="I2" t="n">
+        <v>52</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>27</v>
+      </c>
+      <c r="L2" t="n">
+        <v>9</v>
+      </c>
+      <c r="M2" t="n">
+        <v>36</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>34</v>
+      </c>
+      <c r="P2" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>49</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v>24</v>
+      </c>
+      <c r="T2" t="n">
+        <v>13</v>
+      </c>
+      <c r="U2" t="n">
+        <v>37</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="W2" t="n">
+        <v>37</v>
+      </c>
+      <c r="X2" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>58</v>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AA2" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>62</v>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE2" t="n">
+        <v>35</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>39</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>74</v>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AI2" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>61</v>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1AM18CS006</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>37</v>
+      </c>
+      <c r="E3" t="n">
+        <v>62</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>18</v>
+      </c>
+      <c r="H3" t="n">
+        <v>23</v>
+      </c>
+      <c r="I3" t="n">
+        <v>41</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>23</v>
+      </c>
+      <c r="L3" t="n">
+        <v>21</v>
+      </c>
+      <c r="M3" t="n">
+        <v>44</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>29</v>
+      </c>
+      <c r="P3" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>41</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>16</v>
+      </c>
+      <c r="T3" t="n">
+        <v>21</v>
+      </c>
+      <c r="U3" t="n">
+        <v>37</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="W3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X3" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AA3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>59</v>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>39</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>79</v>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AI3" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>58</v>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1AM18CS099</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25</v>
+      </c>
+      <c r="E4" t="n">
+        <v>44</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>22</v>
+      </c>
+      <c r="H4" t="n">
+        <v>16</v>
+      </c>
+      <c r="I4" t="n">
+        <v>38</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>22</v>
+      </c>
+      <c r="L4" t="n">
+        <v>21</v>
+      </c>
+      <c r="M4" t="n">
+        <v>43</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>29</v>
+      </c>
+      <c r="P4" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>37</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>20</v>
+      </c>
+      <c r="T4" t="n">
+        <v>21</v>
+      </c>
+      <c r="U4" t="n">
+        <v>41</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W4" t="n">
+        <v>19</v>
+      </c>
+      <c r="X4" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>33</v>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AA4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>59</v>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AI4" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>P</t>
         </is>
       </c>
     </row>

--- a/result/student_marks.xlsx
+++ b/result/student_marks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL4"/>
+  <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1028,6 +1028,278 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1AM18CS010</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29</v>
+      </c>
+      <c r="E5" t="n">
+        <v>55</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>28</v>
+      </c>
+      <c r="H5" t="n">
+        <v>21</v>
+      </c>
+      <c r="I5" t="n">
+        <v>49</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>23</v>
+      </c>
+      <c r="L5" t="n">
+        <v>35</v>
+      </c>
+      <c r="M5" t="n">
+        <v>58</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>34</v>
+      </c>
+      <c r="P5" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>49</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>33</v>
+      </c>
+      <c r="T5" t="n">
+        <v>18</v>
+      </c>
+      <c r="U5" t="n">
+        <v>51</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="W5" t="n">
+        <v>21</v>
+      </c>
+      <c r="X5" t="n">
+        <v>33</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>54</v>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AA5" t="n">
+        <v>39</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>66</v>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>66</v>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AI5" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>66</v>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1AM18CS028</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21</v>
+      </c>
+      <c r="E6" t="n">
+        <v>41</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>21</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>21</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>22</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8</v>
+      </c>
+      <c r="M6" t="n">
+        <v>30</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>18</v>
+      </c>
+      <c r="P6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>33</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>19</v>
+      </c>
+      <c r="T6" t="n">
+        <v>9</v>
+      </c>
+      <c r="U6" t="n">
+        <v>28</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
+        <v>17</v>
+      </c>
+      <c r="X6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AA6" t="n">
+        <v>33</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>63</v>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AI6" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>63</v>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/result/student_marks.xlsx
+++ b/result/student_marks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL6"/>
+  <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -756,550 +756,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1AM18CS006</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>37</v>
-      </c>
-      <c r="E3" t="n">
-        <v>62</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>18</v>
-      </c>
-      <c r="H3" t="n">
-        <v>23</v>
-      </c>
-      <c r="I3" t="n">
-        <v>41</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>23</v>
-      </c>
-      <c r="L3" t="n">
-        <v>21</v>
-      </c>
-      <c r="M3" t="n">
-        <v>44</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>29</v>
-      </c>
-      <c r="P3" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>41</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v>16</v>
-      </c>
-      <c r="T3" t="n">
-        <v>21</v>
-      </c>
-      <c r="U3" t="n">
-        <v>37</v>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="W3" t="n">
-        <v>20</v>
-      </c>
-      <c r="X3" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AA3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>59</v>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AE3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>39</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>79</v>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AI3" t="n">
-        <v>37</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>58</v>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1AM18CS099</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25</v>
-      </c>
-      <c r="E4" t="n">
-        <v>44</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>22</v>
-      </c>
-      <c r="H4" t="n">
-        <v>16</v>
-      </c>
-      <c r="I4" t="n">
-        <v>38</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>22</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21</v>
-      </c>
-      <c r="M4" t="n">
-        <v>43</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
-        <v>29</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>37</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v>20</v>
-      </c>
-      <c r="T4" t="n">
-        <v>21</v>
-      </c>
-      <c r="U4" t="n">
-        <v>41</v>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="W4" t="n">
-        <v>19</v>
-      </c>
-      <c r="X4" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AA4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>59</v>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AE4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>75</v>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AI4" t="n">
-        <v>37</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1AM18CS010</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>26</v>
-      </c>
-      <c r="D5" t="n">
-        <v>29</v>
-      </c>
-      <c r="E5" t="n">
-        <v>55</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>28</v>
-      </c>
-      <c r="H5" t="n">
-        <v>21</v>
-      </c>
-      <c r="I5" t="n">
-        <v>49</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>23</v>
-      </c>
-      <c r="L5" t="n">
-        <v>35</v>
-      </c>
-      <c r="M5" t="n">
-        <v>58</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
-        <v>34</v>
-      </c>
-      <c r="P5" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>49</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="S5" t="n">
-        <v>33</v>
-      </c>
-      <c r="T5" t="n">
-        <v>18</v>
-      </c>
-      <c r="U5" t="n">
-        <v>51</v>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="W5" t="n">
-        <v>21</v>
-      </c>
-      <c r="X5" t="n">
-        <v>33</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>54</v>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AA5" t="n">
-        <v>39</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>66</v>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AE5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>66</v>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AI5" t="n">
-        <v>37</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>66</v>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1AM18CS028</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>20</v>
-      </c>
-      <c r="D6" t="n">
-        <v>21</v>
-      </c>
-      <c r="E6" t="n">
-        <v>41</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>21</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>21</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>22</v>
-      </c>
-      <c r="L6" t="n">
-        <v>8</v>
-      </c>
-      <c r="M6" t="n">
-        <v>30</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="O6" t="n">
-        <v>18</v>
-      </c>
-      <c r="P6" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>33</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v>19</v>
-      </c>
-      <c r="T6" t="n">
-        <v>9</v>
-      </c>
-      <c r="U6" t="n">
-        <v>28</v>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="W6" t="n">
-        <v>17</v>
-      </c>
-      <c r="X6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AA6" t="n">
-        <v>33</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AE6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>63</v>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AI6" t="n">
-        <v>37</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>63</v>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/result/student_marks.xlsx
+++ b/result/student_marks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AL7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -756,6 +756,686 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1AM18CS006</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>37</v>
+      </c>
+      <c r="E3" t="n">
+        <v>62</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>18</v>
+      </c>
+      <c r="H3" t="n">
+        <v>23</v>
+      </c>
+      <c r="I3" t="n">
+        <v>41</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>23</v>
+      </c>
+      <c r="L3" t="n">
+        <v>21</v>
+      </c>
+      <c r="M3" t="n">
+        <v>44</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>29</v>
+      </c>
+      <c r="P3" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>41</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>16</v>
+      </c>
+      <c r="T3" t="n">
+        <v>21</v>
+      </c>
+      <c r="U3" t="n">
+        <v>37</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="W3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X3" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AA3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>59</v>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>39</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>79</v>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AI3" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>58</v>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1AM18CS099</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25</v>
+      </c>
+      <c r="E4" t="n">
+        <v>44</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>22</v>
+      </c>
+      <c r="H4" t="n">
+        <v>16</v>
+      </c>
+      <c r="I4" t="n">
+        <v>38</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>22</v>
+      </c>
+      <c r="L4" t="n">
+        <v>21</v>
+      </c>
+      <c r="M4" t="n">
+        <v>43</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>29</v>
+      </c>
+      <c r="P4" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>37</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>20</v>
+      </c>
+      <c r="T4" t="n">
+        <v>21</v>
+      </c>
+      <c r="U4" t="n">
+        <v>41</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W4" t="n">
+        <v>19</v>
+      </c>
+      <c r="X4" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>33</v>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AA4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>59</v>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AI4" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1AM18CS010</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29</v>
+      </c>
+      <c r="E5" t="n">
+        <v>55</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>28</v>
+      </c>
+      <c r="H5" t="n">
+        <v>21</v>
+      </c>
+      <c r="I5" t="n">
+        <v>49</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>23</v>
+      </c>
+      <c r="L5" t="n">
+        <v>35</v>
+      </c>
+      <c r="M5" t="n">
+        <v>58</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>34</v>
+      </c>
+      <c r="P5" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>49</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>33</v>
+      </c>
+      <c r="T5" t="n">
+        <v>18</v>
+      </c>
+      <c r="U5" t="n">
+        <v>51</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="W5" t="n">
+        <v>21</v>
+      </c>
+      <c r="X5" t="n">
+        <v>33</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>54</v>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AA5" t="n">
+        <v>39</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>66</v>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>66</v>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AI5" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>66</v>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1AM18CS028</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21</v>
+      </c>
+      <c r="E6" t="n">
+        <v>41</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>21</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>21</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>22</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8</v>
+      </c>
+      <c r="M6" t="n">
+        <v>30</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>18</v>
+      </c>
+      <c r="P6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>33</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>19</v>
+      </c>
+      <c r="T6" t="n">
+        <v>9</v>
+      </c>
+      <c r="U6" t="n">
+        <v>28</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
+        <v>17</v>
+      </c>
+      <c r="X6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AA6" t="n">
+        <v>33</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>63</v>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AI6" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>63</v>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1AM18CS082</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>28</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36</v>
+      </c>
+      <c r="E7" t="n">
+        <v>64</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>24</v>
+      </c>
+      <c r="H7" t="n">
+        <v>14</v>
+      </c>
+      <c r="I7" t="n">
+        <v>38</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>22</v>
+      </c>
+      <c r="L7" t="n">
+        <v>17</v>
+      </c>
+      <c r="M7" t="n">
+        <v>39</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>32</v>
+      </c>
+      <c r="P7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>44</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>26</v>
+      </c>
+      <c r="T7" t="n">
+        <v>10</v>
+      </c>
+      <c r="U7" t="n">
+        <v>36</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="W7" t="n">
+        <v>23</v>
+      </c>
+      <c r="X7" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AA7" t="n">
+        <v>39</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>66</v>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AE7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>71</v>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AI7" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>68</v>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
